--- a/Team-Data/2007-08/4-6-2007-08.xlsx
+++ b/Team-Data/2007-08/4-6-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -750,10 +817,10 @@
         <v>18</v>
       </c>
       <c r="AF2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH2" t="n">
         <v>4</v>
@@ -762,7 +829,7 @@
         <v>22</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
         <v>16</v>
@@ -807,13 +874,13 @@
         <v>4</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ2" t="n">
         <v>11</v>
       </c>
       <c r="BA2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB2" t="n">
         <v>15</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>10.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
         <v>20</v>
@@ -956,13 +1023,13 @@
         <v>13</v>
       </c>
       <c r="AN3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO3" t="n">
         <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ3" t="n">
         <v>8</v>
@@ -971,16 +1038,16 @@
         <v>24</v>
       </c>
       <c r="AS3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW3" t="n">
         <v>5</v>
@@ -998,7 +1065,7 @@
         <v>8</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -1123,13 +1190,13 @@
         <v>4</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
         <v>20</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1165,10 +1232,10 @@
         <v>20</v>
       </c>
       <c r="AW4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-3</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1323,31 +1390,31 @@
         <v>14</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP5" t="n">
         <v>15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
       </c>
       <c r="AS5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU5" t="n">
         <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1575,7 @@
         <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -1576,37 +1643,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" t="n">
         <v>29</v>
       </c>
       <c r="G7" t="n">
-        <v>0.623</v>
+        <v>0.618</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J7" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K7" t="n">
         <v>0.465</v>
       </c>
       <c r="L7" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="N7" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="O7" t="n">
         <v>20.7</v>
@@ -1615,22 +1682,22 @@
         <v>25.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="R7" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S7" t="n">
         <v>32.3</v>
       </c>
       <c r="T7" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U7" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V7" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W7" t="n">
         <v>6.1</v>
@@ -1648,25 +1715,25 @@
         <v>21.3</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="AC7" t="n">
         <v>4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1678,7 +1745,7 @@
         <v>9</v>
       </c>
       <c r="AL7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM7" t="n">
         <v>19</v>
@@ -1699,7 +1766,7 @@
         <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT7" t="n">
         <v>6</v>
@@ -1714,10 +1781,10 @@
         <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
         <v>23</v>
@@ -1729,7 +1796,7 @@
         <v>12</v>
       </c>
       <c r="BC7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -1758,34 +1825,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" t="n">
         <v>46</v>
       </c>
       <c r="F8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>0.597</v>
+        <v>0.605</v>
       </c>
       <c r="H8" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>40.3</v>
+        <v>40.1</v>
       </c>
       <c r="J8" t="n">
-        <v>85.90000000000001</v>
+        <v>85.7</v>
       </c>
       <c r="K8" t="n">
-        <v>0.469</v>
+        <v>0.468</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M8" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="N8" t="n">
         <v>0.357</v>
@@ -1794,10 +1861,10 @@
         <v>23</v>
       </c>
       <c r="P8" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R8" t="n">
         <v>11.4</v>
@@ -1809,7 +1876,7 @@
         <v>43.9</v>
       </c>
       <c r="U8" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="V8" t="n">
         <v>14.7</v>
@@ -1824,19 +1891,19 @@
         <v>4.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA8" t="n">
         <v>23.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>110.6</v>
+        <v>110.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1848,10 +1915,10 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI8" t="n">
         <v>4</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>3</v>
       </c>
       <c r="AJ8" t="n">
         <v>2</v>
@@ -1863,7 +1930,7 @@
         <v>12</v>
       </c>
       <c r="AM8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN8" t="n">
         <v>17</v>
@@ -1875,13 +1942,13 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
         <v>15</v>
       </c>
       <c r="AS8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
         <v>5</v>
@@ -1908,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="BB8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC8" t="n">
         <v>11</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" t="n">
         <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>0.724</v>
+        <v>0.72</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1958,7 +2025,7 @@
         <v>36.5</v>
       </c>
       <c r="J9" t="n">
-        <v>79.5</v>
+        <v>79.7</v>
       </c>
       <c r="K9" t="n">
         <v>0.459</v>
@@ -1979,28 +2046,28 @@
         <v>24.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R9" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S9" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T9" t="n">
         <v>41.1</v>
       </c>
       <c r="U9" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="V9" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="W9" t="n">
         <v>7.2</v>
       </c>
       <c r="X9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y9" t="n">
         <v>3.8</v>
@@ -2012,13 +2079,13 @@
         <v>19.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2045,13 +2112,13 @@
         <v>18</v>
       </c>
       <c r="AM9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP9" t="n">
         <v>20</v>
@@ -2069,7 +2136,7 @@
         <v>22</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2081,16 +2148,16 @@
         <v>3</v>
       </c>
       <c r="AY9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA9" t="n">
         <v>25</v>
       </c>
       <c r="BB9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" t="n">
         <v>46</v>
       </c>
       <c r="F10" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" t="n">
-        <v>0.597</v>
+        <v>0.605</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,25 +2207,25 @@
         <v>41.3</v>
       </c>
       <c r="J10" t="n">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="K10" t="n">
         <v>0.46</v>
       </c>
       <c r="L10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M10" t="n">
         <v>26.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.348</v>
+        <v>0.352</v>
       </c>
       <c r="O10" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P10" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="Q10" t="n">
         <v>0.753</v>
@@ -2173,7 +2240,7 @@
         <v>42.9</v>
       </c>
       <c r="U10" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V10" t="n">
         <v>13.2</v>
@@ -2188,19 +2255,19 @@
         <v>5.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>110.4</v>
+        <v>110.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
@@ -2212,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2230,16 +2297,16 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO10" t="n">
         <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR10" t="n">
         <v>5</v>
@@ -2263,7 +2330,7 @@
         <v>19</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
@@ -2272,10 +2339,10 @@
         <v>14</v>
       </c>
       <c r="BB10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" t="n">
         <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.675</v>
+        <v>0.671</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
@@ -2331,37 +2398,37 @@
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N11" t="n">
         <v>0.341</v>
       </c>
       <c r="O11" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P11" t="n">
         <v>22.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.727</v>
+        <v>0.725</v>
       </c>
       <c r="R11" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S11" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T11" t="n">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="U11" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V11" t="n">
         <v>13.9</v>
       </c>
       <c r="W11" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X11" t="n">
         <v>5.2</v>
@@ -2376,13 +2443,13 @@
         <v>19.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
@@ -2394,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
         <v>17</v>
@@ -2403,7 +2470,7 @@
         <v>15</v>
       </c>
       <c r="AK11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL11" t="n">
         <v>11</v>
@@ -2421,19 +2488,19 @@
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR11" t="n">
         <v>8</v>
       </c>
       <c r="AS11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT11" t="n">
         <v>2</v>
       </c>
       <c r="AU11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV11" t="n">
         <v>9</v>
@@ -2442,7 +2509,7 @@
         <v>14</v>
       </c>
       <c r="AX11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY11" t="n">
         <v>12</v>
@@ -2451,13 +2518,13 @@
         <v>3</v>
       </c>
       <c r="BA11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB11" t="n">
         <v>21</v>
       </c>
       <c r="BC11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" t="n">
         <v>44</v>
       </c>
       <c r="G12" t="n">
-        <v>0.429</v>
+        <v>0.421</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
@@ -2504,7 +2571,7 @@
         <v>37.7</v>
       </c>
       <c r="J12" t="n">
-        <v>85.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="K12" t="n">
         <v>0.442</v>
@@ -2513,7 +2580,7 @@
         <v>9.1</v>
       </c>
       <c r="M12" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="N12" t="n">
         <v>0.372</v>
@@ -2525,7 +2592,7 @@
         <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R12" t="n">
         <v>11.2</v>
@@ -2540,7 +2607,7 @@
         <v>22.5</v>
       </c>
       <c r="V12" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W12" t="n">
         <v>7.7</v>
@@ -2552,7 +2619,7 @@
         <v>5.2</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AA12" t="n">
         <v>21.8</v>
@@ -2561,10 +2628,10 @@
         <v>103.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.8</v>
+        <v>-1.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2582,7 +2649,7 @@
         <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK12" t="n">
         <v>26</v>
@@ -2594,16 +2661,16 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
         <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
@@ -2615,10 +2682,10 @@
         <v>7</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" t="n">
         <v>23</v>
       </c>
       <c r="F13" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" t="n">
-        <v>0.299</v>
+        <v>0.303</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2686,49 +2753,49 @@
         <v>34.4</v>
       </c>
       <c r="J13" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K13" t="n">
         <v>0.439</v>
       </c>
       <c r="L13" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M13" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.324</v>
+        <v>0.325</v>
       </c>
       <c r="O13" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="P13" t="n">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.784</v>
+        <v>0.786</v>
       </c>
       <c r="R13" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S13" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T13" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U13" t="n">
         <v>21.1</v>
       </c>
       <c r="V13" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X13" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y13" t="n">
         <v>4.8</v>
@@ -2737,16 +2804,16 @@
         <v>21.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.90000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>-6.5</v>
+        <v>-6.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,16 +2825,16 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
         <v>28</v>
@@ -2782,7 +2849,7 @@
         <v>6</v>
       </c>
       <c r="AP13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ13" t="n">
         <v>5</v>
@@ -2800,13 +2867,13 @@
         <v>18</v>
       </c>
       <c r="AV13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW13" t="n">
         <v>19</v>
       </c>
       <c r="AX13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY13" t="n">
         <v>15</v>
@@ -2815,13 +2882,13 @@
         <v>18</v>
       </c>
       <c r="BA13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" t="n">
         <v>24</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,28 +2935,28 @@
         <v>39.6</v>
       </c>
       <c r="J14" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K14" t="n">
         <v>0.476</v>
       </c>
       <c r="L14" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M14" t="n">
         <v>21.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.379</v>
+        <v>0.376</v>
       </c>
       <c r="O14" t="n">
         <v>21.3</v>
       </c>
       <c r="P14" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R14" t="n">
         <v>10.9</v>
@@ -2898,7 +2965,7 @@
         <v>33.2</v>
       </c>
       <c r="T14" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="U14" t="n">
         <v>24.3</v>
@@ -2907,13 +2974,13 @@
         <v>14.2</v>
       </c>
       <c r="W14" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X14" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z14" t="n">
         <v>20.7</v>
@@ -2925,10 +2992,10 @@
         <v>108.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
@@ -2940,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2958,7 +3025,7 @@
         <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" t="n">
         <v>56</v>
       </c>
       <c r="G15" t="n">
-        <v>0.273</v>
+        <v>0.263</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
@@ -3050,7 +3117,7 @@
         <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K15" t="n">
         <v>0.455</v>
@@ -3065,13 +3132,13 @@
         <v>0.35</v>
       </c>
       <c r="O15" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P15" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.73</v>
+        <v>0.728</v>
       </c>
       <c r="R15" t="n">
         <v>10.2</v>
@@ -3083,10 +3150,10 @@
         <v>41.5</v>
       </c>
       <c r="U15" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="V15" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W15" t="n">
         <v>6.1</v>
@@ -3095,22 +3162,22 @@
         <v>4.8</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA15" t="n">
         <v>22.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6</v>
+        <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
         <v>10</v>
@@ -3140,10 +3207,10 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
         <v>14</v>
@@ -3167,7 +3234,7 @@
         <v>28</v>
       </c>
       <c r="AW15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX15" t="n">
         <v>16</v>
@@ -3182,7 +3249,7 @@
         <v>6</v>
       </c>
       <c r="BB15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" t="n">
-        <v>0.169</v>
+        <v>0.171</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="J16" t="n">
         <v>77.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L16" t="n">
         <v>5.7</v>
@@ -3247,16 +3314,16 @@
         <v>0.356</v>
       </c>
       <c r="O16" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P16" t="n">
         <v>23.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.724</v>
+        <v>0.723</v>
       </c>
       <c r="R16" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S16" t="n">
         <v>28.6</v>
@@ -3265,34 +3332,34 @@
         <v>37.6</v>
       </c>
       <c r="U16" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V16" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W16" t="n">
         <v>7.2</v>
       </c>
       <c r="X16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA16" t="n">
         <v>20.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>91.40000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>-9.1</v>
+        <v>-9</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>30</v>
@@ -3313,13 +3380,13 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
         <v>23</v>
       </c>
       <c r="AM16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN16" t="n">
         <v>18</v>
@@ -3355,7 +3422,7 @@
         <v>22</v>
       </c>
       <c r="AY16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -3396,37 +3463,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" t="n">
         <v>26</v>
       </c>
       <c r="F17" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" t="n">
-        <v>0.342</v>
+        <v>0.347</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J17" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L17" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.338</v>
+        <v>0.339</v>
       </c>
       <c r="O17" t="n">
         <v>17.6</v>
@@ -3435,16 +3502,16 @@
         <v>23.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.735</v>
+        <v>0.736</v>
       </c>
       <c r="R17" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="T17" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U17" t="n">
         <v>21.2</v>
@@ -3474,7 +3541,7 @@
         <v>-6.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3486,7 +3553,7 @@
         <v>24</v>
       </c>
       <c r="AH17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
         <v>16</v>
@@ -3495,13 +3562,13 @@
         <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
         <v>24</v>
       </c>
       <c r="AM17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN17" t="n">
         <v>26</v>
@@ -3525,7 +3592,7 @@
         <v>17</v>
       </c>
       <c r="AU17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV17" t="n">
         <v>18</v>
@@ -3549,7 +3616,7 @@
         <v>22</v>
       </c>
       <c r="BC17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -3578,52 +3645,52 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" t="n">
         <v>19</v>
       </c>
       <c r="F18" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" t="n">
-        <v>0.25</v>
+        <v>0.253</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
       </c>
       <c r="I18" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J18" t="n">
         <v>82.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M18" t="n">
         <v>15.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O18" t="n">
         <v>15.3</v>
       </c>
       <c r="P18" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.735</v>
+        <v>0.734</v>
       </c>
       <c r="R18" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S18" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T18" t="n">
         <v>41.1</v>
@@ -3632,16 +3699,16 @@
         <v>19.9</v>
       </c>
       <c r="V18" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X18" t="n">
         <v>3.7</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z18" t="n">
         <v>23</v>
@@ -3650,19 +3717,19 @@
         <v>17.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7</v>
+        <v>-6.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
       </c>
       <c r="AF18" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG18" t="n">
         <v>28</v>
@@ -3671,13 +3738,13 @@
         <v>29</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
         <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="n">
         <v>25</v>
@@ -3713,7 +3780,7 @@
         <v>19</v>
       </c>
       <c r="AW18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3731,7 +3798,7 @@
         <v>28</v>
       </c>
       <c r="BC18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
@@ -3850,7 +3917,7 @@
         <v>21</v>
       </c>
       <c r="AH19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI19" t="n">
         <v>28</v>
@@ -3862,7 +3929,7 @@
         <v>25</v>
       </c>
       <c r="AL19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM19" t="n">
         <v>18</v>
@@ -3895,7 +3962,7 @@
         <v>24</v>
       </c>
       <c r="AW19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX19" t="n">
         <v>17</v>
@@ -3910,7 +3977,7 @@
         <v>7</v>
       </c>
       <c r="BB19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC19" t="n">
         <v>23</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20" t="n">
         <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>0.711</v>
+        <v>0.707</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J20" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L20" t="n">
         <v>7.8</v>
@@ -3978,7 +4045,7 @@
         <v>16</v>
       </c>
       <c r="P20" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q20" t="n">
         <v>0.77</v>
@@ -3987,19 +4054,19 @@
         <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T20" t="n">
         <v>42</v>
       </c>
       <c r="U20" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="V20" t="n">
         <v>11.9</v>
       </c>
       <c r="W20" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
         <v>3.9</v>
@@ -4014,13 +4081,13 @@
         <v>19.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE20" t="n">
         <v>3</v>
@@ -4032,7 +4099,7 @@
         <v>3</v>
       </c>
       <c r="AH20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI20" t="n">
         <v>6</v>
@@ -4077,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -4124,28 +4191,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" t="n">
         <v>56</v>
       </c>
       <c r="G21" t="n">
-        <v>0.273</v>
+        <v>0.263</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J21" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L21" t="n">
         <v>5.8</v>
@@ -4157,28 +4224,28 @@
         <v>0.335</v>
       </c>
       <c r="O21" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P21" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.725</v>
+        <v>0.724</v>
       </c>
       <c r="R21" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S21" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>42.2</v>
+        <v>42</v>
       </c>
       <c r="U21" t="n">
         <v>18.6</v>
       </c>
       <c r="V21" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W21" t="n">
         <v>6.3</v>
@@ -4190,19 +4257,19 @@
         <v>5.1</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>96.40000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.8</v>
+        <v>-7</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4223,19 +4290,19 @@
         <v>14</v>
       </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
         <v>21</v>
       </c>
       <c r="AM21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN21" t="n">
         <v>28</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP21" t="n">
         <v>11</v>
@@ -4250,7 +4317,7 @@
         <v>21</v>
       </c>
       <c r="AT21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU21" t="n">
         <v>30</v>
@@ -4259,7 +4326,7 @@
         <v>13</v>
       </c>
       <c r="AW21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4277,7 +4344,7 @@
         <v>23</v>
       </c>
       <c r="BC21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -4306,55 +4373,55 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" t="n">
         <v>48</v>
       </c>
       <c r="F22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" t="n">
-        <v>0.623</v>
+        <v>0.632</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J22" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L22" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.385</v>
+        <v>0.387</v>
       </c>
       <c r="O22" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="P22" t="n">
         <v>28.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.725</v>
+        <v>0.727</v>
       </c>
       <c r="R22" t="n">
         <v>9.4</v>
       </c>
       <c r="S22" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T22" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U22" t="n">
         <v>20.4</v>
@@ -4378,13 +4445,13 @@
         <v>23.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.2</v>
+        <v>104.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>9</v>
@@ -4396,10 +4463,10 @@
         <v>9</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ22" t="n">
         <v>26</v>
@@ -4423,16 +4490,16 @@
         <v>3</v>
       </c>
       <c r="AQ22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR22" t="n">
         <v>28</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU22" t="n">
         <v>22</v>
@@ -4447,7 +4514,7 @@
         <v>26</v>
       </c>
       <c r="AY22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ22" t="n">
         <v>15</v>
@@ -4459,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4645,7 @@
         <v>15</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
         <v>11</v>
@@ -4614,13 +4681,13 @@
         <v>28</v>
       </c>
       <c r="AT23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU23" t="n">
         <v>23</v>
       </c>
       <c r="AV23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -4670,34 +4737,34 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" t="n">
         <v>51</v>
       </c>
       <c r="F24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G24" t="n">
-        <v>0.662</v>
+        <v>0.671</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="J24" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5</v>
+        <v>0.501</v>
       </c>
       <c r="L24" t="n">
         <v>8.6</v>
       </c>
       <c r="M24" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="N24" t="n">
         <v>0.394</v>
@@ -4709,7 +4776,7 @@
         <v>24.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.783</v>
+        <v>0.782</v>
       </c>
       <c r="R24" t="n">
         <v>8.699999999999999</v>
@@ -4724,7 +4791,7 @@
         <v>26.9</v>
       </c>
       <c r="V24" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W24" t="n">
         <v>6.6</v>
@@ -4742,25 +4809,25 @@
         <v>21.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4781,7 +4848,7 @@
         <v>1</v>
       </c>
       <c r="AO24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP24" t="n">
         <v>21</v>
@@ -4793,7 +4860,7 @@
         <v>30</v>
       </c>
       <c r="AS24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
         <v>21</v>
@@ -4811,7 +4878,7 @@
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ24" t="n">
         <v>9</v>
@@ -4820,7 +4887,7 @@
         <v>15</v>
       </c>
       <c r="BB24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC24" t="n">
         <v>6</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -4852,34 +4919,34 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" t="n">
         <v>38</v>
       </c>
       <c r="F25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" t="n">
-        <v>0.494</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>35.5</v>
+        <v>35.7</v>
       </c>
       <c r="J25" t="n">
-        <v>79.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.446</v>
+        <v>0.448</v>
       </c>
       <c r="L25" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M25" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="N25" t="n">
         <v>0.376</v>
@@ -4888,22 +4955,22 @@
         <v>17.4</v>
       </c>
       <c r="P25" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q25" t="n">
         <v>0.77</v>
       </c>
       <c r="R25" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S25" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T25" t="n">
         <v>40.8</v>
       </c>
       <c r="U25" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="V25" t="n">
         <v>13.1</v>
@@ -4918,25 +4985,25 @@
         <v>3.8</v>
       </c>
       <c r="Z25" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="n">
         <v>20.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.90000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="AC25" t="n">
         <v>-1.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
         <v>16</v>
       </c>
       <c r="AF25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
         <v>16</v>
@@ -4948,19 +5015,19 @@
         <v>27</v>
       </c>
       <c r="AJ25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
       </c>
       <c r="AM25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
         <v>24</v>
@@ -4969,13 +5036,13 @@
         <v>25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR25" t="n">
         <v>18</v>
       </c>
       <c r="AS25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT25" t="n">
         <v>24</v>
@@ -4993,7 +5060,7 @@
         <v>21</v>
       </c>
       <c r="AY25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E26" t="n">
         <v>36</v>
       </c>
       <c r="F26" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26" t="n">
-        <v>0.468</v>
+        <v>0.474</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5055,7 +5122,7 @@
         <v>79.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
         <v>6.3</v>
@@ -5064,13 +5131,13 @@
         <v>16.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O26" t="n">
         <v>22.3</v>
       </c>
       <c r="P26" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="Q26" t="n">
         <v>0.798</v>
@@ -5079,13 +5146,13 @@
         <v>10.3</v>
       </c>
       <c r="S26" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T26" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="V26" t="n">
         <v>16</v>
@@ -5106,13 +5173,13 @@
         <v>23.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.3</v>
+        <v>102.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.2</v>
+        <v>-2</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,7 +5191,7 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI26" t="n">
         <v>14</v>
@@ -5142,7 +5209,7 @@
         <v>20</v>
       </c>
       <c r="AN26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5157,7 +5224,7 @@
         <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT26" t="n">
         <v>27</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" t="n">
         <v>24</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
       </c>
       <c r="I27" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J27" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L27" t="n">
         <v>7.4</v>
@@ -5246,13 +5313,13 @@
         <v>19.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="O27" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P27" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="Q27" t="n">
         <v>0.764</v>
@@ -5267,34 +5334,34 @@
         <v>41.4</v>
       </c>
       <c r="U27" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V27" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W27" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X27" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y27" t="n">
         <v>4.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.5</v>
+        <v>95.8</v>
       </c>
       <c r="AC27" t="n">
         <v>4.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
         <v>4</v>
@@ -5306,10 +5373,10 @@
         <v>4</v>
       </c>
       <c r="AH27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
@@ -5324,7 +5391,7 @@
         <v>8</v>
       </c>
       <c r="AN27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO27" t="n">
         <v>26</v>
@@ -5339,10 +5406,10 @@
         <v>26</v>
       </c>
       <c r="AS27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU27" t="n">
         <v>20</v>
@@ -5351,7 +5418,7 @@
         <v>4</v>
       </c>
       <c r="AW27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX27" t="n">
         <v>24</v>
@@ -5366,7 +5433,7 @@
         <v>24</v>
       </c>
       <c r="BB27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC27" t="n">
         <v>7</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28" t="n">
         <v>59</v>
       </c>
       <c r="G28" t="n">
-        <v>0.234</v>
+        <v>0.224</v>
       </c>
       <c r="H28" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>38.2</v>
+        <v>37.9</v>
       </c>
       <c r="J28" t="n">
-        <v>85.59999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L28" t="n">
         <v>3.9</v>
@@ -5428,55 +5495,55 @@
         <v>11.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.336</v>
+        <v>0.335</v>
       </c>
       <c r="O28" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P28" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R28" t="n">
         <v>12</v>
       </c>
       <c r="S28" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T28" t="n">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="U28" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="V28" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W28" t="n">
         <v>6.4</v>
       </c>
       <c r="X28" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y28" t="n">
         <v>5.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>29</v>
@@ -5488,16 +5555,16 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL28" t="n">
         <v>29</v>
@@ -5515,40 +5582,40 @@
         <v>24</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR28" t="n">
         <v>10</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT28" t="n">
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AV28" t="n">
         <v>30</v>
       </c>
       <c r="AW28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY28" t="n">
         <v>26</v>
       </c>
       <c r="AZ28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC28" t="n">
         <v>29</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -5664,13 +5731,13 @@
         <v>16</v>
       </c>
       <c r="AF29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
@@ -5700,7 +5767,7 @@
         <v>1</v>
       </c>
       <c r="AR29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS29" t="n">
         <v>14</v>
@@ -5721,7 +5788,7 @@
         <v>27</v>
       </c>
       <c r="AY29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ29" t="n">
         <v>5</v>
@@ -5733,7 +5800,7 @@
         <v>13</v>
       </c>
       <c r="BC29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -5843,19 +5910,19 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH30" t="n">
         <v>30</v>
       </c>
       <c r="AI30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ30" t="n">
         <v>18</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
@@ -6034,7 +6101,7 @@
         <v>14</v>
       </c>
       <c r="AH31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI31" t="n">
         <v>19</v>
@@ -6043,13 +6110,13 @@
         <v>16</v>
       </c>
       <c r="AK31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL31" t="n">
         <v>14</v>
       </c>
       <c r="AM31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN31" t="n">
         <v>19</v>
@@ -6070,7 +6137,7 @@
         <v>26</v>
       </c>
       <c r="AT31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-6-2007-08</t>
+          <t>2008-04-06</t>
         </is>
       </c>
     </row>
